--- a/document/DB_intial.xlsx
+++ b/document/DB_intial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wode2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wode2\Desktop\File\毕设相关\毕业设计\presentRep_FinalDesign\LE-FINAL-DESIGN\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22271A71-8814-4F54-BEE1-E85F4326242E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355D8A53-E58A-4752-8CAA-176844518D05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22272" windowHeight="13176" xr2:uid="{7717AF19-8158-4C41-BE82-1F45EDC590B3}"/>
+    <workbookView xWindow="1164" yWindow="576" windowWidth="20076" windowHeight="12168" xr2:uid="{7717AF19-8158-4C41-BE82-1F45EDC590B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -877,32 +877,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1223,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03B4FF8F-CA29-4F01-A225-0806DC58B71D}">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1236,12 +1236,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1256,11 +1256,11 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -1275,9 +1275,9 @@
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -1292,9 +1292,9 @@
       <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
     </row>
     <row r="5" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -1309,9 +1309,9 @@
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
     </row>
     <row r="6" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -1326,17 +1326,17 @@
       <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -1507,12 +1507,12 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
@@ -1625,11 +1625,11 @@
       <c r="D32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="33" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
@@ -1644,9 +1644,9 @@
       <c r="D33" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
     </row>
     <row r="34" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
@@ -1689,11 +1689,11 @@
       <c r="D36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
@@ -1708,9 +1708,9 @@
       <c r="D37" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
@@ -1755,12 +1755,12 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -1817,11 +1817,11 @@
       <c r="D47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
     </row>
     <row r="48" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
@@ -1836,9 +1836,9 @@
       <c r="D48" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="19"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
     </row>
     <row r="49" spans="1:7" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
@@ -1853,10 +1853,10 @@
       <c r="D49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="19" t="s">
+      <c r="E49" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="F49" s="20"/>
+      <c r="F49" s="23"/>
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1872,8 +1872,8 @@
       <c r="D50" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="19"/>
-      <c r="F50" s="20"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="23"/>
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -1906,10 +1906,10 @@
       <c r="D52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="21" t="s">
+      <c r="E52" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="F52" s="22"/>
+      <c r="F52" s="26"/>
     </row>
     <row r="53" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
@@ -1924,8 +1924,8 @@
       <c r="D53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="22"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="26"/>
     </row>
     <row r="54" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
@@ -1942,16 +1942,16 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="27" t="s">
@@ -1962,16 +1962,16 @@
       <c r="D57" s="27"/>
     </row>
     <row r="58" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" s="18" t="s">
         <v>185</v>
       </c>
       <c r="F58" s="11" t="s">
@@ -1979,82 +1979,82 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="25">
+      <c r="A59" s="18">
         <v>1</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="18" t="s">
         <v>186</v>
       </c>
-      <c r="D59" s="25" t="s">
+      <c r="D59" s="18" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="25">
+      <c r="A60" s="18">
         <v>2</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="D60" s="25" t="s">
+      <c r="D60" s="18" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="25">
+      <c r="A61" s="18">
         <v>3</v>
       </c>
-      <c r="B61" s="26" t="s">
+      <c r="B61" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="25">
+      <c r="A62" s="18">
         <v>4</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="19"/>
+      <c r="D62" s="19"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
     </row>
     <row r="68" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
+      <c r="B68" s="24"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
       <c r="F68" s="17" t="s">
         <v>180</v>
       </c>
@@ -2145,11 +2145,11 @@
       <c r="D74" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E74" s="21" t="s">
+      <c r="E74" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
     </row>
     <row r="75" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
@@ -2178,11 +2178,11 @@
       <c r="D76" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E76" s="22" t="s">
+      <c r="E76" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
     </row>
     <row r="77" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
@@ -2199,12 +2199,12 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
+      <c r="B79" s="24"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
     </row>
     <row r="80" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
@@ -2319,12 +2319,12 @@
       </c>
     </row>
     <row r="90" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="18" t="s">
+      <c r="A90" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
+      <c r="B90" s="24"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
     </row>
     <row r="91" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
@@ -2509,12 +2509,12 @@
       </c>
     </row>
     <row r="106" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="18" t="s">
+      <c r="A106" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="B106" s="18"/>
-      <c r="C106" s="18"/>
-      <c r="D106" s="18"/>
+      <c r="B106" s="24"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
     </row>
     <row r="107" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="12" t="s">
@@ -2711,10 +2711,10 @@
       <c r="D120" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E120" s="21" t="s">
+      <c r="E120" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="F120" s="22"/>
+      <c r="F120" s="26"/>
     </row>
     <row r="121" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="14">
@@ -2729,8 +2729,8 @@
       <c r="D121" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E121" s="21"/>
-      <c r="F121" s="22"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="26"/>
     </row>
     <row r="122" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="14">
@@ -2745,8 +2745,8 @@
       <c r="D122" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E122" s="21"/>
-      <c r="F122" s="22"/>
+      <c r="E122" s="20"/>
+      <c r="F122" s="26"/>
     </row>
     <row r="123" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="14">
@@ -2761,19 +2761,11 @@
       <c r="D123" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E123" s="21"/>
-      <c r="F123" s="22"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="E36:G37"/>
-    <mergeCell ref="E49:F50"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E2:G6"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E32:G33"/>
     <mergeCell ref="A79:D79"/>
     <mergeCell ref="E47:G48"/>
     <mergeCell ref="A90:D90"/>
@@ -2784,6 +2776,14 @@
     <mergeCell ref="E76:G76"/>
     <mergeCell ref="E52:F53"/>
     <mergeCell ref="A57:D57"/>
+    <mergeCell ref="E36:G37"/>
+    <mergeCell ref="E49:F50"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E2:G6"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E32:G33"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
